--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.16260000000002</v>
+        <v>-21.30860000000002</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.822000000000002</v>
+        <v>-7.466100000000004</v>
       </c>
       <c r="E4" t="n">
-        <v>12.13670000000001</v>
+        <v>12.47450000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.997999999999993</v>
+        <v>-8.220399999999994</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.61520000000001</v>
+        <v>-21.45640000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.471899999999994</v>
+        <v>-8.485499999999996</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.21180000000001</v>
+        <v>13.42070000000001</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.16819999999998</v>
+        <v>-20.14799999999998</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.319800000000003</v>
+        <v>-8.211900000000005</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.8227</v>
+        <v>12.7636</v>
       </c>
     </row>
     <row r="19">
